--- a/biology/Zoologie/Afrogarypus_impressus/Afrogarypus_impressus.xlsx
+++ b/biology/Zoologie/Afrogarypus_impressus/Afrogarypus_impressus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Afrogarypus impressus est une espèce de pseudoscorpions de la famille des Geogarypidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, au Mozambique et aux Seychelles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, au Mozambique et aux Seychelles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Garypus impressus par Tullgren en 1907. Elle est placée dans le genre Geogarypus par Chamberlin en 1930[2] puis dans le genre Afrogarypus par Harvey en 1986[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Garypus impressus par Tullgren en 1907. Elle est placée dans le genre Geogarypus par Chamberlin en 1930 puis dans le genre Afrogarypus par Harvey en 1986.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tullgren, 1907 : « Chelonethiden aus Natal und Zululand ». Zoologiska studier tillägnade Professor T. Tullberg, Uppsala, p. 216-236.</t>
         </is>
